--- a/EICV7Rwanda.xlsx
+++ b/EICV7Rwanda.xlsx
@@ -8,28 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikuzw\OneDrive\Documents\Data analysis projects\EICV7Rwanda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BB7762-3C07-4352-BE97-F21ADBE5EEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD5CC86-8450-45B3-BB96-BBA51A55D847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="945" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="poverty" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="employment" sheetId="2" r:id="rId2"/>
+    <sheet name="education" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="131">
   <si>
     <t>Total Poverty rate (%)</t>
   </si>
@@ -89,16 +98,352 @@
   </si>
   <si>
     <t>Filter</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  City of Kigali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Southern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Western</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Northern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Eastern</t>
+  </si>
+  <si>
+    <t>Age group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  16-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  20-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  25-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  30-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  35-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  40-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  45-49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  50-54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  55-59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  60-64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  65+</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>A:Agriculture, Forestry and Fishing</t>
+  </si>
+  <si>
+    <t>B:Mining and Quarrying</t>
+  </si>
+  <si>
+    <t>C:Manufacturing</t>
+  </si>
+  <si>
+    <t>D: Electricity, Gas and Air Conditioning Supply</t>
+  </si>
+  <si>
+    <t>E: Water Supply,Gas, and Remediation Services</t>
+  </si>
+  <si>
+    <t>F:Construction</t>
+  </si>
+  <si>
+    <t>G: Wholesale and Retail trade, Repair of Motor Vehicles and Motorcycles</t>
+  </si>
+  <si>
+    <t>H: Transportation and Storage</t>
+  </si>
+  <si>
+    <t>I: Accommodation and Food Services Activities</t>
+  </si>
+  <si>
+    <t>J: Information and Communication</t>
+  </si>
+  <si>
+    <t>K: Financial and Insurance Activities</t>
+  </si>
+  <si>
+    <t>L: Real Estate Activities</t>
+  </si>
+  <si>
+    <t>M: Professional, Scientific and Technical Activities</t>
+  </si>
+  <si>
+    <t>N: Administrative and Support Activities</t>
+  </si>
+  <si>
+    <t>O: Public Administration and Defense;Compulsory Social Security</t>
+  </si>
+  <si>
+    <t>P: Education</t>
+  </si>
+  <si>
+    <t>Q: Human Health and Social Work Activities</t>
+  </si>
+  <si>
+    <t>R: Arts,Entertainment and Recreation</t>
+  </si>
+  <si>
+    <t>S: Other Service Activities</t>
+  </si>
+  <si>
+    <t>T: Activities of Households as Employers</t>
+  </si>
+  <si>
+    <t>U: Activities of Extraterritorial Organizations and Bodies</t>
+  </si>
+  <si>
+    <t>Economic activity</t>
+  </si>
+  <si>
+    <t>Area of residence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Urban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rural</t>
+  </si>
+  <si>
+    <t>Disability status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Without disability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  With disability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Not disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Disabled</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>No education</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>Secondaryfilter</t>
+  </si>
+  <si>
+    <t>Mainfilter</t>
+  </si>
+  <si>
+    <t>Areaofresidence</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Disabilitystatus</t>
+  </si>
+  <si>
+    <t>Without disability</t>
+  </si>
+  <si>
+    <t>10-14</t>
+  </si>
+  <si>
+    <t>15-19</t>
+  </si>
+  <si>
+    <t>20-24</t>
+  </si>
+  <si>
+    <t>25-29</t>
+  </si>
+  <si>
+    <t>30-34</t>
+  </si>
+  <si>
+    <t>35-39</t>
+  </si>
+  <si>
+    <t>40-44</t>
+  </si>
+  <si>
+    <t>45-49</t>
+  </si>
+  <si>
+    <t>50-54</t>
+  </si>
+  <si>
+    <t>55-59</t>
+  </si>
+  <si>
+    <t>60-64</t>
+  </si>
+  <si>
+    <t>65+</t>
+  </si>
+  <si>
+    <t>Secondfilter</t>
+  </si>
+  <si>
+    <t>Thirdfilter</t>
+  </si>
+  <si>
+    <t>With disability</t>
+  </si>
+  <si>
+    <t>Numeracy rate</t>
+  </si>
+  <si>
+    <t>Literacy rate</t>
+  </si>
+  <si>
+    <t>10 years and above</t>
+  </si>
+  <si>
+    <t>15 years and above</t>
+  </si>
+  <si>
+    <t>15-24 years</t>
+  </si>
+  <si>
+    <t>16-30 years</t>
+  </si>
+  <si>
+    <t>31 years and above</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Female</t>
+  </si>
+  <si>
+    <t>computer literacy</t>
+  </si>
+  <si>
+    <t>Type of school</t>
+  </si>
+  <si>
+    <t>Type of indicator</t>
+  </si>
+  <si>
+    <t>Primary school</t>
+  </si>
+  <si>
+    <t>Net Attendance Ratio</t>
+  </si>
+  <si>
+    <t>Gross Attendance Rates</t>
+  </si>
+  <si>
+    <t>Secondary school</t>
+  </si>
+  <si>
+    <t>Repetition Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  11-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  13-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  15-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  17-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &gt;18</t>
+  </si>
+  <si>
+    <t>Orphanhood status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Not orphan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Single/double orphan</t>
+  </si>
+  <si>
+    <t>Promotion Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  19-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  21-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  23+</t>
+  </si>
+  <si>
+    <t>orphanhood status</t>
+  </si>
+  <si>
+    <t>Computerliteracy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +494,45 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -170,7 +554,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -193,12 +577,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -219,28 +616,122 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Comma 3" xfId="2" xr:uid="{622DDDE9-0CFE-459C-A140-B18D9C64EABD}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{7F91123B-45F7-4A45-BD55-054BA5FCB99A}"/>
+    <cellStyle name="Normal 6" xfId="3" xr:uid="{99DD3B31-612A-4058-955F-CE16D2F5186D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -520,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,25 +1377,5448 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B86A01-D2B0-4AE1-8522-A84C733078EC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
+    <col min="11" max="11" width="57" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="17">
+        <v>586.71025632315866</v>
+      </c>
+      <c r="C2" s="17">
+        <v>631.18539513802978</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1217.8956514611884</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="17">
+        <v>629.46473739190594</v>
+      </c>
+      <c r="H2" s="17">
+        <v>647.46542939264498</v>
+      </c>
+      <c r="I2" s="17">
+        <v>1276.9301667845509</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="17">
+        <v>1597.793103499394</v>
+      </c>
+      <c r="M2" s="17">
+        <v>2444.7285999049345</v>
+      </c>
+      <c r="N2" s="17">
+        <v>4042.5217034043812</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="17">
+        <v>849.40005393912622</v>
+      </c>
+      <c r="C3" s="17">
+        <v>983.05926869892789</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1832.4593226380541</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="17">
+        <v>580.99443203579426</v>
+      </c>
+      <c r="H3" s="17">
+        <v>659.8607070363438</v>
+      </c>
+      <c r="I3" s="17">
+        <v>1240.8551390721379</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="17">
+        <v>61.295490845848974</v>
+      </c>
+      <c r="M3" s="17">
+        <v>12.316914631170075</v>
+      </c>
+      <c r="N3" s="17">
+        <v>73.612405477019024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="17">
+        <v>769.12169654178308</v>
+      </c>
+      <c r="C4" s="17">
+        <v>931.39753280311425</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1700.5192293448972</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="17">
+        <v>421.79490518138653</v>
+      </c>
+      <c r="H4" s="17">
+        <v>488.88265684838439</v>
+      </c>
+      <c r="I4" s="17">
+        <v>910.67756202977091</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="17">
+        <v>134.70895431827137</v>
+      </c>
+      <c r="M4" s="17">
+        <v>95.303928347052931</v>
+      </c>
+      <c r="N4" s="17">
+        <v>230.01288266532427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="17">
+        <v>585.47516788102791</v>
+      </c>
+      <c r="C5" s="17">
+        <v>697.38651309136901</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1282.8616809723969</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="17">
+        <v>412.45122355875037</v>
+      </c>
+      <c r="H5" s="17">
+        <v>481.1662111098475</v>
+      </c>
+      <c r="I5" s="17">
+        <v>893.61743466859787</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="17">
+        <v>5.1945877749536793</v>
+      </c>
+      <c r="M5" s="17">
+        <v>1.2652495089829674</v>
+      </c>
+      <c r="N5" s="17">
+        <v>6.4598372839366469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="17">
+        <v>1020.8296914506382</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1146.5836939121775</v>
+      </c>
+      <c r="D6" s="17">
+        <v>2167.4133853628159</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="17">
+        <v>411.68372487602841</v>
+      </c>
+      <c r="H6" s="17">
+        <v>437.89601294894817</v>
+      </c>
+      <c r="I6" s="17">
+        <v>849.57973782497652</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="17">
+        <v>6.9783145374582167</v>
+      </c>
+      <c r="M6" s="17">
+        <v>6.3884791466510054</v>
+      </c>
+      <c r="N6" s="17">
+        <v>13.366793684109222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="17">
+        <v>382.08549097522734</v>
+      </c>
+      <c r="H7" s="17">
+        <v>422.14630705305512</v>
+      </c>
+      <c r="I7" s="17">
+        <v>804.23179802828247</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="17">
+        <v>352.88292745899901</v>
+      </c>
+      <c r="M7" s="17">
+        <v>73.648047532082202</v>
+      </c>
+      <c r="N7" s="17">
+        <v>426.53097499108185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="17">
+        <v>240.05953776921834</v>
+      </c>
+      <c r="H8" s="17">
+        <v>280.15092684716035</v>
+      </c>
+      <c r="I8" s="17">
+        <v>520.21046461637866</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="17">
+        <v>279.24184517376273</v>
+      </c>
+      <c r="M8" s="17">
+        <v>331.15388763454411</v>
+      </c>
+      <c r="N8" s="17">
+        <v>610.39573280830552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="17">
+        <v>188.41921895404033</v>
+      </c>
+      <c r="H9" s="17">
+        <v>237.41591176642828</v>
+      </c>
+      <c r="I9" s="17">
+        <v>425.83513072046861</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="17">
+        <v>211.45587879456505</v>
+      </c>
+      <c r="M9" s="17">
+        <v>9.3602006277221435</v>
+      </c>
+      <c r="N9" s="17">
+        <v>220.81607942228729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="17">
+        <v>1151.8200594422624</v>
+      </c>
+      <c r="C10" s="17">
+        <v>1289.4472710045807</v>
+      </c>
+      <c r="D10" s="17">
+        <v>2441.2673304468431</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="17">
+        <v>138.26932759835518</v>
+      </c>
+      <c r="H10" s="17">
+        <v>178.4868586676707</v>
+      </c>
+      <c r="I10" s="17">
+        <v>316.75618626602585</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="17">
+        <v>67.092777727949539</v>
+      </c>
+      <c r="M10" s="17">
+        <v>68.513977642774094</v>
+      </c>
+      <c r="N10" s="17">
+        <v>135.60675537072356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="17">
+        <v>2659.7168066934719</v>
+      </c>
+      <c r="C11" s="17">
+        <v>3100.1651326390379</v>
+      </c>
+      <c r="D11" s="17">
+        <v>5759.8819393325093</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="17">
+        <v>137.57818948932481</v>
+      </c>
+      <c r="H11" s="17">
+        <v>181.15298696329188</v>
+      </c>
+      <c r="I11" s="17">
+        <v>318.73117645261669</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="17">
+        <v>11.742713171775852</v>
+      </c>
+      <c r="M11" s="17">
+        <v>8.1231678436691066</v>
+      </c>
+      <c r="N11" s="17">
+        <v>19.865881015444941</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="17">
+        <v>268.73607830570262</v>
+      </c>
+      <c r="H12" s="17">
+        <v>374.98839500984326</v>
+      </c>
+      <c r="I12" s="17">
+        <v>643.72447331554588</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="17">
+        <v>16.793552870455901</v>
+      </c>
+      <c r="M12" s="17">
+        <v>20.07460696527508</v>
+      </c>
+      <c r="N12" s="17">
+        <v>36.868159835730999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="17">
+        <v>5.6177929681874579</v>
+      </c>
+      <c r="M13" s="17">
+        <v>2.2284632823055834</v>
+      </c>
+      <c r="N13" s="17">
+        <v>7.8462562504930435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="17">
+        <v>17.739988770975248</v>
+      </c>
+      <c r="M14" s="17">
+        <v>12.31740634821729</v>
+      </c>
+      <c r="N14" s="17">
+        <v>30.057395119192567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K15" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="17">
+        <v>42.472678116337313</v>
+      </c>
+      <c r="M15" s="17">
+        <v>29.673039939804564</v>
+      </c>
+      <c r="N15" s="17">
+        <v>72.145718056141817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K16" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="17">
+        <v>87.010600038371322</v>
+      </c>
+      <c r="M16" s="17">
+        <v>26.53774278749302</v>
+      </c>
+      <c r="N16" s="17">
+        <v>113.54834282586425</v>
+      </c>
+    </row>
+    <row r="17" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K17" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="17">
+        <v>76.795930736024218</v>
+      </c>
+      <c r="M17" s="17">
+        <v>77.542193249495682</v>
+      </c>
+      <c r="N17" s="17">
+        <v>154.33812398551996</v>
+      </c>
+    </row>
+    <row r="18" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K18" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="17">
+        <v>23.153530242478052</v>
+      </c>
+      <c r="M18" s="17">
+        <v>21.736513874065889</v>
+      </c>
+      <c r="N18" s="17">
+        <v>44.89004411654394</v>
+      </c>
+    </row>
+    <row r="19" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="17">
+        <v>9.7913088088496103</v>
+      </c>
+      <c r="M19" s="17">
+        <v>10.676400317687158</v>
+      </c>
+      <c r="N19" s="17">
+        <v>20.467709126536775</v>
+      </c>
+    </row>
+    <row r="20" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K20" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="17">
+        <v>60.214379695793248</v>
+      </c>
+      <c r="M20" s="17">
+        <v>41.654823906387712</v>
+      </c>
+      <c r="N20" s="17">
+        <v>101.8692036021809</v>
+      </c>
+    </row>
+    <row r="21" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K21" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" s="17">
+        <v>80.709049947679745</v>
+      </c>
+      <c r="M21" s="17">
+        <v>119.67000111427745</v>
+      </c>
+      <c r="N21" s="17">
+        <v>200.37905106195697</v>
+      </c>
+    </row>
+    <row r="22" spans="11:14" x14ac:dyDescent="0.3">
+      <c r="K22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="17">
+        <v>0.93429802337647438</v>
+      </c>
+      <c r="M22" s="17">
+        <v>1.7172393673531556</v>
+      </c>
+      <c r="N22" s="17">
+        <v>2.6515373907296302</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE79CDC8-D534-4DC3-86C7-2665BF8CED9A}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:AH136"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V52" sqref="V52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="23"/>
+    <col min="23" max="23" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="N1"/>
+    </row>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG2" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="21">
+        <v>3.9431489927673877</v>
+      </c>
+      <c r="F3" s="21">
+        <v>50.123892961761662</v>
+      </c>
+      <c r="G3" s="21">
+        <v>33.623863897693788</v>
+      </c>
+      <c r="H3" s="21">
+        <v>12.309094147777094</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="27">
+        <v>90.308407487042345</v>
+      </c>
+      <c r="P3" s="27">
+        <v>87.524866386218093</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="T3" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" s="40">
+        <v>95.383971253920507</v>
+      </c>
+      <c r="W3" s="40">
+        <v>95.075404791860961</v>
+      </c>
+      <c r="X3" s="40">
+        <v>95.2280191337465</v>
+      </c>
+      <c r="AA3" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB3" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC3" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD3" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE3" s="40">
+        <v>18.615544552961364</v>
+      </c>
+      <c r="AF3" s="40">
+        <v>15.353355720686555</v>
+      </c>
+      <c r="AG3" s="40">
+        <v>16.977660183645305</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="21">
+        <v>5.717625296462062</v>
+      </c>
+      <c r="F4" s="21">
+        <v>47.947839379280509</v>
+      </c>
+      <c r="G4" s="21">
+        <v>35.907940029122813</v>
+      </c>
+      <c r="H4" s="21">
+        <v>10.426595295134316</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="27">
+        <v>76.123458264698797</v>
+      </c>
+      <c r="P4" s="27">
+        <v>70.077129575106881</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="T4" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="U4" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" s="40">
+        <v>90.90911953322437</v>
+      </c>
+      <c r="W4" s="40">
+        <v>93.050973025570855</v>
+      </c>
+      <c r="X4" s="40">
+        <v>91.978045061221906</v>
+      </c>
+      <c r="AA4" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB4" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC4" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD4" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE4" s="40">
+        <v>25.889771818764377</v>
+      </c>
+      <c r="AF4" s="40">
+        <v>18.942232500424229</v>
+      </c>
+      <c r="AG4" s="40">
+        <v>22.444259972968048</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B5" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="21">
+        <v>8.1236716007652756</v>
+      </c>
+      <c r="F5" s="21">
+        <v>71.880239577150988</v>
+      </c>
+      <c r="G5" s="21">
+        <v>18.08399373042284</v>
+      </c>
+      <c r="H5" s="21">
+        <v>1.9120950916611046</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="27">
+        <v>92.854926743530427</v>
+      </c>
+      <c r="P5" s="27">
+        <v>91.050014415685965</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="40">
+        <v>93.95513618599351</v>
+      </c>
+      <c r="W5" s="40">
+        <v>96.481484283931565</v>
+      </c>
+      <c r="X5" s="40">
+        <v>95.203721749099373</v>
+      </c>
+      <c r="AA5" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB5" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD5" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE5" s="40">
+        <v>18.168702640366831</v>
+      </c>
+      <c r="AF5" s="40">
+        <v>14.087800593859406</v>
+      </c>
+      <c r="AG5" s="40">
+        <v>16.173525580710447</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="21">
+        <v>12.503303015072959</v>
+      </c>
+      <c r="F6" s="21">
+        <v>65.640856229359869</v>
+      </c>
+      <c r="G6" s="21">
+        <v>20.782232854306233</v>
+      </c>
+      <c r="H6" s="21">
+        <v>1.0736079012603299</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="27">
+        <v>75.011479395486504</v>
+      </c>
+      <c r="P6" s="27">
+        <v>71.68609132590808</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="V6" s="40">
+        <v>90.969243362568264</v>
+      </c>
+      <c r="W6" s="40">
+        <v>93.098552797876579</v>
+      </c>
+      <c r="X6" s="40">
+        <v>92.015942699189097</v>
+      </c>
+      <c r="AA6" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB6" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD6" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE6" s="40">
+        <v>27.449615744408884</v>
+      </c>
+      <c r="AF6" s="40">
+        <v>18.806743008245185</v>
+      </c>
+      <c r="AG6" s="40">
+        <v>23.114809587309257</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="21">
+        <v>2.5331861832178375</v>
+      </c>
+      <c r="F7" s="21">
+        <v>47.819094392066106</v>
+      </c>
+      <c r="G7" s="21">
+        <v>35.904557350413427</v>
+      </c>
+      <c r="H7" s="21">
+        <v>13.743162074302548</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="27">
+        <v>80.896583143317443</v>
+      </c>
+      <c r="P7" s="27">
+        <v>73.634561230324209</v>
+      </c>
+      <c r="R7" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="S7" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="V7" s="40">
+        <v>91.641834520238632</v>
+      </c>
+      <c r="W7" s="40">
+        <v>93.4161113302156</v>
+      </c>
+      <c r="X7" s="40">
+        <v>92.54905710771402</v>
+      </c>
+      <c r="AA7" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB7" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD7" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE7" s="40">
+        <v>22.779949609757693</v>
+      </c>
+      <c r="AF7" s="40">
+        <v>19.107407594955127</v>
+      </c>
+      <c r="AG7" s="40">
+        <v>20.967656240323954</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="21">
+        <v>4.1600842661239286</v>
+      </c>
+      <c r="F8" s="21">
+        <v>45.056950903790998</v>
+      </c>
+      <c r="G8" s="21">
+        <v>37.800325578581116</v>
+      </c>
+      <c r="H8" s="20">
+        <v>12.982639251503732</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="27">
+        <v>79.513309947795904</v>
+      </c>
+      <c r="P8" s="27">
+        <v>74.57646894138999</v>
+      </c>
+      <c r="R8" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="S8" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" s="40">
+        <v>95.974155086127197</v>
+      </c>
+      <c r="W8" s="40">
+        <v>96.3055192653256</v>
+      </c>
+      <c r="X8" s="40">
+        <v>96.139984609090888</v>
+      </c>
+      <c r="AA8" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB8" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD8" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE8" s="40">
+        <v>26.15487935754636</v>
+      </c>
+      <c r="AF8" s="40">
+        <v>20.342140342096641</v>
+      </c>
+      <c r="AG8" s="40">
+        <v>23.303819687352327</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="21">
+        <v>8.3488408107198921</v>
+      </c>
+      <c r="F9" s="21">
+        <v>70.57107789007695</v>
+      </c>
+      <c r="G9" s="21">
+        <v>18.098998094157427</v>
+      </c>
+      <c r="H9" s="21">
+        <v>2.9810832050459446</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="27">
+        <v>77.87642455462273</v>
+      </c>
+      <c r="P9" s="27">
+        <v>71.163615561368573</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="S9" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="V9" s="40">
+        <v>90.132459703048653</v>
+      </c>
+      <c r="W9" s="40">
+        <v>91.338140610032937</v>
+      </c>
+      <c r="X9" s="40">
+        <v>90.737718620245303</v>
+      </c>
+      <c r="AA9" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB9" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD9" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE9" s="40">
+        <v>23.54355039409478</v>
+      </c>
+      <c r="AF9" s="40">
+        <v>16.749425062566747</v>
+      </c>
+      <c r="AG9" s="40">
+        <v>20.113311339127918</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="21">
+        <v>11.809196553239756</v>
+      </c>
+      <c r="F10" s="21">
+        <v>64.107330160936684</v>
+      </c>
+      <c r="G10" s="21">
+        <v>22.04852610320351</v>
+      </c>
+      <c r="H10" s="21">
+        <v>2.034947182620217</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="27">
+        <v>85.434567131987421</v>
+      </c>
+      <c r="P10" s="27">
+        <v>91.461791816359167</v>
+      </c>
+      <c r="R10" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="S10" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="T10" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="U10" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="V10" s="40">
+        <v>92.362398713703385</v>
+      </c>
+      <c r="W10" s="40">
+        <v>93.929417429736745</v>
+      </c>
+      <c r="X10" s="40">
+        <v>93.146753317969797</v>
+      </c>
+      <c r="AA10" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB10" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC10" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD10" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE10" s="40">
+        <v>32.86458617006123</v>
+      </c>
+      <c r="AF10" s="40">
+        <v>27.002620976815088</v>
+      </c>
+      <c r="AG10" s="40">
+        <v>29.893600497777904</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="21">
+        <v>7.1578191599067296</v>
+      </c>
+      <c r="F11" s="21">
+        <v>67.43059698682319</v>
+      </c>
+      <c r="G11" s="21">
+        <v>21.808638159305104</v>
+      </c>
+      <c r="H11" s="21">
+        <v>3.6029456939650859</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="O11" s="27">
+        <v>87.278980630560213</v>
+      </c>
+      <c r="P11" s="27">
+        <v>90.998107998941592</v>
+      </c>
+      <c r="R11" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="S11" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="T11" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="U11" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="V11" s="40">
+        <v>61.164689091204842</v>
+      </c>
+      <c r="W11" s="40">
+        <v>62.00610256592892</v>
+      </c>
+      <c r="X11" s="40">
+        <v>61.594151647727308</v>
+      </c>
+      <c r="AA11" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB11" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC11" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD11" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE11" s="40">
+        <v>25.347139817724763</v>
+      </c>
+      <c r="AF11" s="40">
+        <v>17.889197469782403</v>
+      </c>
+      <c r="AG11" s="40">
+        <v>21.599811411589322</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="21">
+        <v>11.6335676548835</v>
+      </c>
+      <c r="F12" s="21">
+        <v>62.712061698148723</v>
+      </c>
+      <c r="G12" s="21">
+        <v>23.32687094832967</v>
+      </c>
+      <c r="H12" s="21">
+        <v>2.3274996986383094</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="O12" s="27">
+        <v>88.145489093493339</v>
+      </c>
+      <c r="P12" s="27">
+        <v>90.455114050941077</v>
+      </c>
+      <c r="R12" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="S12" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="T12" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="U12" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="V12" s="40">
+        <v>140.13653083505315</v>
+      </c>
+      <c r="W12" s="40">
+        <v>133.62300746857622</v>
+      </c>
+      <c r="X12" s="40">
+        <v>136.8445406037589</v>
+      </c>
+      <c r="AA12" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB12" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC12" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD12" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE12" s="40">
+        <v>24.837499158769162</v>
+      </c>
+      <c r="AF12" s="40">
+        <v>18.008375142825688</v>
+      </c>
+      <c r="AG12" s="40">
+        <v>21.314421591993003</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="21">
+        <v>6.9495331116028876</v>
+      </c>
+      <c r="F13" s="21">
+        <v>68.849053634205632</v>
+      </c>
+      <c r="G13" s="21">
+        <v>19.870417048148852</v>
+      </c>
+      <c r="H13" s="21">
+        <v>4.3309962060424843</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" s="27">
+        <v>84.24880713756562</v>
+      </c>
+      <c r="P13" s="27">
+        <v>83.721147194338485</v>
+      </c>
+      <c r="R13" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="S13" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="T13" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="U13" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="V13" s="40">
+        <v>141.5065687367098</v>
+      </c>
+      <c r="W13" s="40">
+        <v>139.99392186698896</v>
+      </c>
+      <c r="X13" s="40">
+        <v>140.75165862746658</v>
+      </c>
+      <c r="AA13" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB13" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC13" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD13" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE13" s="40">
+        <v>23.915313069511921</v>
+      </c>
+      <c r="AF13" s="40">
+        <v>16.481997990231424</v>
+      </c>
+      <c r="AG13" s="40">
+        <v>20.332244654367361</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="21">
+        <v>12.031949302991396</v>
+      </c>
+      <c r="F14" s="21">
+        <v>61.125027191192515</v>
+      </c>
+      <c r="G14" s="21">
+        <v>24.046672422309459</v>
+      </c>
+      <c r="H14" s="21">
+        <v>2.796351083506651</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" s="27">
+        <v>80.512396540839816</v>
+      </c>
+      <c r="P14" s="27">
+        <v>75.544882811999244</v>
+      </c>
+      <c r="R14" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="S14" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V14" s="40">
+        <v>133.74594836114684</v>
+      </c>
+      <c r="W14" s="40">
+        <v>133.85053618709082</v>
+      </c>
+      <c r="X14" s="40">
+        <v>133.79763832804286</v>
+      </c>
+      <c r="AA14" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB14" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC14" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD14" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE14" s="40">
+        <v>18.22215294084241</v>
+      </c>
+      <c r="AF14" s="40">
+        <v>13.025175266674745</v>
+      </c>
+      <c r="AG14" s="40">
+        <v>15.928328861861042</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="21">
+        <v>7.8642027056756518</v>
+      </c>
+      <c r="F15" s="21">
+        <v>67.66414248483666</v>
+      </c>
+      <c r="G15" s="21">
+        <v>21.307747248372255</v>
+      </c>
+      <c r="H15" s="21">
+        <v>3.1639075611156793</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" s="27">
+        <v>75.279812505385706</v>
+      </c>
+      <c r="P15" s="27">
+        <v>71.001974780018244</v>
+      </c>
+      <c r="R15" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="S15" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U15" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="V15" s="40">
+        <v>138.53719051206008</v>
+      </c>
+      <c r="W15" s="40">
+        <v>140.57711870890122</v>
+      </c>
+      <c r="X15" s="40">
+        <v>139.53995293586843</v>
+      </c>
+      <c r="AA15" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB15" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC15" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD15" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE15" s="40">
+        <v>10.247861104754689</v>
+      </c>
+      <c r="AF15" s="40">
+        <v>12.708453407786152</v>
+      </c>
+      <c r="AG15" s="40">
+        <v>11.293728987651365</v>
+      </c>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B16" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="21">
+        <v>11.117039787469695</v>
+      </c>
+      <c r="F16" s="21">
+        <v>63.666318861962381</v>
+      </c>
+      <c r="G16" s="21">
+        <v>23.123417908774581</v>
+      </c>
+      <c r="H16" s="21">
+        <v>2.0932234417936959</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16" s="27">
+        <v>80.578914170112881</v>
+      </c>
+      <c r="P16" s="27">
+        <v>70.89195764688759</v>
+      </c>
+      <c r="R16" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="S16" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="V16" s="40">
+        <v>144.39709991675579</v>
+      </c>
+      <c r="W16" s="40">
+        <v>135.59097461198232</v>
+      </c>
+      <c r="X16" s="40">
+        <v>139.89435505772056</v>
+      </c>
+      <c r="AA16" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB16" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC16" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD16" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE16" s="40">
+        <v>5.7319947820310997</v>
+      </c>
+      <c r="AF16" s="40">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="40">
+        <v>3.8096867817718842</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B17" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="21">
+        <v>1.6063180200470164</v>
+      </c>
+      <c r="F17" s="21">
+        <v>90.981310943418848</v>
+      </c>
+      <c r="G17" s="21">
+        <v>7.4123710365344557</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="L17" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="O17" s="27">
+        <v>76.101124431765868</v>
+      </c>
+      <c r="P17" s="27">
+        <v>65.591662700472256</v>
+      </c>
+      <c r="R17" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="S17" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="V17" s="40">
+        <v>146.15356245571178</v>
+      </c>
+      <c r="W17" s="40">
+        <v>140.54399978305946</v>
+      </c>
+      <c r="X17" s="40">
+        <v>143.34628526512572</v>
+      </c>
+      <c r="AA17" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB17" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC17" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD17" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE17" s="40">
+        <v>23.879444349104979</v>
+      </c>
+      <c r="AF17" s="40">
+        <v>17.814378164347126</v>
+      </c>
+      <c r="AG17" s="40">
+        <v>20.86023861903405</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B18" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="21">
+        <v>1.3935122591079425</v>
+      </c>
+      <c r="F18" s="21">
+        <v>55.986199706784788</v>
+      </c>
+      <c r="G18" s="21">
+        <v>42.513811768398405</v>
+      </c>
+      <c r="H18" s="21">
+        <v>0.10647626570849905</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="O18" s="27">
+        <v>71.317464628637481</v>
+      </c>
+      <c r="P18" s="27">
+        <v>53.29478204101374</v>
+      </c>
+      <c r="R18" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="S18" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="V18" s="40">
+        <v>140.94343327483048</v>
+      </c>
+      <c r="W18" s="40">
+        <v>139.5439469172079</v>
+      </c>
+      <c r="X18" s="40">
+        <v>140.24088287983017</v>
+      </c>
+      <c r="AA18" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB18" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC18" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD18" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE18" s="40">
+        <v>41.99874232759106</v>
+      </c>
+      <c r="AF18" s="40">
+        <v>41.65834150470139</v>
+      </c>
+      <c r="AG18" s="40">
+        <v>41.840533852619565</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B19" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="21">
+        <v>2.0056352253123499</v>
+      </c>
+      <c r="F19" s="21">
+        <v>51.034174941609109</v>
+      </c>
+      <c r="G19" s="21">
+        <v>40.553965350384388</v>
+      </c>
+      <c r="H19" s="21">
+        <v>6.4062244826944088</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="O19" s="27">
+        <v>64.044053581335149</v>
+      </c>
+      <c r="P19" s="27">
+        <v>39.696602636407917</v>
+      </c>
+      <c r="R19" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="S19" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="T19" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="U19" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="V19" s="40">
+        <v>141.53876678988502</v>
+      </c>
+      <c r="W19" s="40">
+        <v>138.84454195008956</v>
+      </c>
+      <c r="X19" s="40">
+        <v>140.19020111137689</v>
+      </c>
+      <c r="AA19" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB19" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC19" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD19" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE19" s="40">
+        <v>24.065752576049935</v>
+      </c>
+      <c r="AF19" s="40">
+        <v>18.270959637259693</v>
+      </c>
+      <c r="AG19" s="40">
+        <v>21.177068296785031</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B20" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="21">
+        <v>2.6322250891717029</v>
+      </c>
+      <c r="F20" s="21">
+        <v>53.976851993168104</v>
+      </c>
+      <c r="G20" s="21">
+        <v>33.238911764296844</v>
+      </c>
+      <c r="H20" s="21">
+        <v>10.152011153363468</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="O20" s="27">
+        <v>55.324753934555808</v>
+      </c>
+      <c r="P20" s="27">
+        <v>22.185085618544417</v>
+      </c>
+      <c r="R20" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="S20" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="T20" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="U20" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="V20" s="40">
+        <v>63.257868784681712</v>
+      </c>
+      <c r="W20" s="40">
+        <v>62.00610256592892</v>
+      </c>
+      <c r="X20" s="40">
+        <v>62.618959691087362</v>
+      </c>
+      <c r="AA20" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB20" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC20" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD20" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE20" s="40">
+        <v>27.763552798318528</v>
+      </c>
+      <c r="AF20" s="40">
+        <v>16.968469217997963</v>
+      </c>
+      <c r="AG20" s="40">
+        <v>22.250492721804889</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B21" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="21">
+        <v>4.2142204283442046</v>
+      </c>
+      <c r="F21" s="21">
+        <v>57.478837402234376</v>
+      </c>
+      <c r="G21" s="21">
+        <v>28.129641048903697</v>
+      </c>
+      <c r="H21" s="21">
+        <v>10.177301120518042</v>
+      </c>
+      <c r="L21" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="O21" s="27">
+        <v>81.053825913197883</v>
+      </c>
+      <c r="P21" s="27">
+        <v>76.01940990309086</v>
+      </c>
+      <c r="R21" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="S21" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="T21" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="U21" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="V21" s="42">
+        <v>43.523401253886639</v>
+      </c>
+      <c r="W21" s="42">
+        <v>46.57140092129498</v>
+      </c>
+      <c r="X21" s="42">
+        <v>45.106623138718085</v>
+      </c>
+      <c r="AA21" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB21" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC21" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD21" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE21" s="40">
+        <v>74.441003575460286</v>
+      </c>
+      <c r="AF21" s="40">
+        <v>78.546494904502538</v>
+      </c>
+      <c r="AG21" s="40">
+        <v>76.499757828105587</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B22" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="21">
+        <v>7.4073731887248719</v>
+      </c>
+      <c r="F22" s="21">
+        <v>63.508449204919948</v>
+      </c>
+      <c r="G22" s="21">
+        <v>19.235752657076929</v>
+      </c>
+      <c r="H22" s="21">
+        <v>9.8484249492782663</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="N22" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="O22" s="27">
+        <v>54.01481962458783</v>
+      </c>
+      <c r="P22" s="27">
+        <v>39.114401379967369</v>
+      </c>
+      <c r="R22" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="S22" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="T22" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="U22" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="V22" s="42">
+        <v>24.395611467016973</v>
+      </c>
+      <c r="W22" s="42">
+        <v>35.123513258299432</v>
+      </c>
+      <c r="X22" s="42">
+        <v>29.743578684297972</v>
+      </c>
+      <c r="AA22" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB22" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC22" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD22" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE22" s="40">
+        <v>66.253424673201465</v>
+      </c>
+      <c r="AF22" s="40">
+        <v>74.787421430379339</v>
+      </c>
+      <c r="AG22" s="40">
+        <v>70.440089480684719</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B23" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="21">
+        <v>11.335347598133799</v>
+      </c>
+      <c r="F23" s="21">
+        <v>72.026312059473526</v>
+      </c>
+      <c r="G23" s="21">
+        <v>9.7388959159523107</v>
+      </c>
+      <c r="H23" s="21">
+        <v>6.8994444264405566</v>
+      </c>
+      <c r="L23" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="N23" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" s="27">
+        <v>88.435513161157218</v>
+      </c>
+      <c r="P23" s="27">
+        <v>85.584756905831654</v>
+      </c>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="S23" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="T23" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="U23" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="V23" s="42">
+        <v>44.677408596496882</v>
+      </c>
+      <c r="W23" s="42">
+        <v>46.999057441339218</v>
+      </c>
+      <c r="X23" s="42">
+        <v>45.888199867531831</v>
+      </c>
+      <c r="AA23" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB23" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE23" s="40">
+        <v>73.634916663115746</v>
+      </c>
+      <c r="AF23" s="40">
+        <v>79.150677439305355</v>
+      </c>
+      <c r="AG23" s="40">
+        <v>76.352720615148058</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B24" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="21">
+        <v>10.812699429470154</v>
+      </c>
+      <c r="F24" s="21">
+        <v>69.144642153798131</v>
+      </c>
+      <c r="G24" s="21">
+        <v>12.23647425706179</v>
+      </c>
+      <c r="H24" s="21">
+        <v>7.8061841596698596</v>
+      </c>
+      <c r="L24" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M24" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="27">
+        <v>74.075565558329174</v>
+      </c>
+      <c r="P24" s="27">
+        <v>68.589084799821507</v>
+      </c>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="S24" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="T24" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="U24" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="V24" s="42">
+        <v>25.715110391998405</v>
+      </c>
+      <c r="W24" s="42">
+        <v>37.88451383340383</v>
+      </c>
+      <c r="X24" s="42">
+        <v>31.817652903909011</v>
+      </c>
+      <c r="AA24" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB24" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD24" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE24" s="40">
+        <v>64.701121222777928</v>
+      </c>
+      <c r="AF24" s="40">
+        <v>75.377085012018043</v>
+      </c>
+      <c r="AG24" s="40">
+        <v>69.98853195149195</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B25" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="21">
+        <v>15.791667858738146</v>
+      </c>
+      <c r="F25" s="21">
+        <v>68.136036721214538</v>
+      </c>
+      <c r="G25" s="21">
+        <v>9.9854128995231282</v>
+      </c>
+      <c r="H25" s="21">
+        <v>6.086882520524143</v>
+      </c>
+      <c r="L25" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M25" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" s="27">
+        <v>91.488936627788689</v>
+      </c>
+      <c r="P25" s="27">
+        <v>89.804371649643812</v>
+      </c>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="S25" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="T25" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="U25" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="V25" s="42">
+        <v>29.562780391472376</v>
+      </c>
+      <c r="W25" s="42">
+        <v>39.156942885629199</v>
+      </c>
+      <c r="X25" s="42">
+        <v>34.301343035183329</v>
+      </c>
+      <c r="AA25" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB25" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD25" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE25" s="40">
+        <v>68.202501674240025</v>
+      </c>
+      <c r="AF25" s="40">
+        <v>74.189083590883882</v>
+      </c>
+      <c r="AG25" s="40">
+        <v>71.128015767288872</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B26" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="21">
+        <v>19.940239778676574</v>
+      </c>
+      <c r="F26" s="21">
+        <v>68.760539994211996</v>
+      </c>
+      <c r="G26" s="21">
+        <v>6.9664644350615532</v>
+      </c>
+      <c r="H26" s="21">
+        <v>4.3327557920499498</v>
+      </c>
+      <c r="L26" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M26" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="27">
+        <v>73.526753878060518</v>
+      </c>
+      <c r="P26" s="27">
+        <v>70.865652276554172</v>
+      </c>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="S26" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="T26" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="U26" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="V26" s="42">
+        <v>28.197927263759055</v>
+      </c>
+      <c r="W26" s="42">
+        <v>36.638001840544298</v>
+      </c>
+      <c r="X26" s="42">
+        <v>32.465590572632429</v>
+      </c>
+      <c r="AA26" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB26" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD26" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE26" s="40">
+        <v>67.883985942186214</v>
+      </c>
+      <c r="AF26" s="40">
+        <v>74.393569185475386</v>
+      </c>
+      <c r="AG26" s="40">
+        <v>71.071633644397593</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B27" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="21">
+        <v>26.159167822025566</v>
+      </c>
+      <c r="F27" s="21">
+        <v>64.124851206541649</v>
+      </c>
+      <c r="G27" s="21">
+        <v>5.7967096762144781</v>
+      </c>
+      <c r="H27" s="21">
+        <v>3.9192712952183837</v>
+      </c>
+      <c r="L27" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M27" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="27">
+        <v>76.728086790327794</v>
+      </c>
+      <c r="P27" s="27">
+        <v>69.714729937526684</v>
+      </c>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="S27" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="T27" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="U27" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="V27" s="42">
+        <v>26.144111585167014</v>
+      </c>
+      <c r="W27" s="42">
+        <v>34.771274045263304</v>
+      </c>
+      <c r="X27" s="42">
+        <v>30.507834228636668</v>
+      </c>
+      <c r="AA27" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB27" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD27" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE27" s="40">
+        <v>69.32271604152389</v>
+      </c>
+      <c r="AF27" s="40">
+        <v>76.725608653748026</v>
+      </c>
+      <c r="AG27" s="40">
+        <v>73.00744144618497</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B28" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="21">
+        <v>27.043641439261151</v>
+      </c>
+      <c r="F28" s="21">
+        <v>67.413441322481333</v>
+      </c>
+      <c r="G28" s="21">
+        <v>4.0594707673941386</v>
+      </c>
+      <c r="H28" s="21">
+        <v>1.4834464708635342</v>
+      </c>
+      <c r="L28" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M28" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28" s="27">
+        <v>78.368873682202064</v>
+      </c>
+      <c r="P28" s="27">
+        <v>72.958876290390251</v>
+      </c>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="S28" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="T28" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="U28" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="V28" s="42">
+        <v>29.367001459325451</v>
+      </c>
+      <c r="W28" s="42">
+        <v>38.327971306338306</v>
+      </c>
+      <c r="X28" s="42">
+        <v>33.888133105176976</v>
+      </c>
+      <c r="AA28" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB28" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC28" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD28" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE28" s="40">
+        <v>66.646329446292285</v>
+      </c>
+      <c r="AF28" s="40">
+        <v>72.333188062168901</v>
+      </c>
+      <c r="AG28" s="40">
+        <v>69.528566871983017</v>
+      </c>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B29" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="21">
+        <v>0.94795715470372166</v>
+      </c>
+      <c r="F29" s="21">
+        <v>88.08048401704572</v>
+      </c>
+      <c r="G29" s="21">
+        <v>10.971558828250446</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="L29" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M29" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="O29" s="27">
+        <v>76.2523317661677</v>
+      </c>
+      <c r="P29" s="27">
+        <v>70.520896308091764</v>
+      </c>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="S29" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="T29" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="U29" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="V29" s="42">
+        <v>9.8035495764558735</v>
+      </c>
+      <c r="W29" s="42">
+        <v>18.548865009883329</v>
+      </c>
+      <c r="X29" s="42">
+        <v>13.6749084835816</v>
+      </c>
+      <c r="AA29" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB29" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC29" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD29" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE29" s="40">
+        <v>73.240903134988599</v>
+      </c>
+      <c r="AF29" s="40">
+        <v>81.768085455738344</v>
+      </c>
+      <c r="AG29" s="40">
+        <v>77.528349317660229</v>
+      </c>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B30" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="21">
+        <v>0.88847378120211551</v>
+      </c>
+      <c r="F30" s="21">
+        <v>44.017928349994413</v>
+      </c>
+      <c r="G30" s="21">
+        <v>54.723754664464884</v>
+      </c>
+      <c r="H30" s="21">
+        <v>0.36984320433859419</v>
+      </c>
+      <c r="L30" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M30" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="O30" s="27">
+        <v>83.541681202873804</v>
+      </c>
+      <c r="P30" s="27">
+        <v>90.899133661579626</v>
+      </c>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="S30" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="T30" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="U30" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="V30" s="42">
+        <v>61.304624014047036</v>
+      </c>
+      <c r="W30" s="42">
+        <v>64.581790343817346</v>
+      </c>
+      <c r="X30" s="42">
+        <v>63.006881894520085</v>
+      </c>
+      <c r="AA30" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB30" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC30" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD30" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE30" s="40">
+        <v>72.991442192586661</v>
+      </c>
+      <c r="AF30" s="40">
+        <v>79.542435902068149</v>
+      </c>
+      <c r="AG30" s="40">
+        <v>76.344269271322602</v>
+      </c>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B31" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="21">
+        <v>1.0563506559117257</v>
+      </c>
+      <c r="F31" s="21">
+        <v>45.615327316031042</v>
+      </c>
+      <c r="G31" s="21">
+        <v>46.807142252606852</v>
+      </c>
+      <c r="H31" s="21">
+        <v>6.5211797754502516</v>
+      </c>
+      <c r="L31" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M31" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="O31" s="27">
+        <v>85.811511444161766</v>
+      </c>
+      <c r="P31" s="27">
+        <v>90.440525459215706</v>
+      </c>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="S31" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="T31" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="U31" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="V31" s="42">
+        <v>37.669324718715551</v>
+      </c>
+      <c r="W31" s="42">
+        <v>48.62088314532847</v>
+      </c>
+      <c r="X31" s="42">
+        <v>43.128787023940653</v>
+      </c>
+      <c r="AA31" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB31" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC31" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD31" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE31" s="40">
+        <v>66.799572969833321</v>
+      </c>
+      <c r="AF31" s="40">
+        <v>74.656100365941825</v>
+      </c>
+      <c r="AG31" s="40">
+        <v>70.425913855906686</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B32" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="21">
+        <v>1.3706954165563034</v>
+      </c>
+      <c r="F32" s="21">
+        <v>46.716989315050505</v>
+      </c>
+      <c r="G32" s="21">
+        <v>43.345546707895771</v>
+      </c>
+      <c r="H32" s="21">
+        <v>8.5667685604974402</v>
+      </c>
+      <c r="L32" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M32" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="O32" s="27">
+        <v>85.645867283001337</v>
+      </c>
+      <c r="P32" s="27">
+        <v>88.217738168796132</v>
+      </c>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="S32" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="T32" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="U32" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="V32" s="42">
+        <v>62.80245511215815</v>
+      </c>
+      <c r="W32" s="42">
+        <v>64.254768686644255</v>
+      </c>
+      <c r="X32" s="42">
+        <v>63.559868793688757</v>
+      </c>
+      <c r="AA32" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB32" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC32" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD32" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE32" s="40">
+        <v>64.381353056557913</v>
+      </c>
+      <c r="AF32" s="40">
+        <v>69.303260247962896</v>
+      </c>
+      <c r="AG32" s="40">
+        <v>66.365938393483177</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B33" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="21">
+        <v>4.5933596476999385</v>
+      </c>
+      <c r="F33" s="21">
+        <v>56.67030432726402</v>
+      </c>
+      <c r="G33" s="21">
+        <v>30.811120412762044</v>
+      </c>
+      <c r="H33" s="21">
+        <v>7.9252156122743918</v>
+      </c>
+      <c r="L33" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M33" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="O33" s="27">
+        <v>82.57323392321527</v>
+      </c>
+      <c r="P33" s="27">
+        <v>80.751745086027341</v>
+      </c>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="S33" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="T33" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="U33" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="V33" s="42">
+        <v>39.934010890416303</v>
+      </c>
+      <c r="W33" s="42">
+        <v>53.185737007899746</v>
+      </c>
+      <c r="X33" s="42">
+        <v>46.579301465054314</v>
+      </c>
+      <c r="AA33" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB33" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC33" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD33" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE33" s="40">
+        <v>57.436018587390826</v>
+      </c>
+      <c r="AF33" s="40">
+        <v>47.905171820020996</v>
+      </c>
+      <c r="AG33" s="40">
+        <v>53.993839889797265</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B34" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="21">
+        <v>8.9337278487844305</v>
+      </c>
+      <c r="F34" s="21">
+        <v>70.016835182286215</v>
+      </c>
+      <c r="G34" s="21">
+        <v>13.1730243617355</v>
+      </c>
+      <c r="H34" s="21">
+        <v>7.8764126071940304</v>
+      </c>
+      <c r="L34" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M34" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="O34" s="27">
+        <v>77.780031724346699</v>
+      </c>
+      <c r="P34" s="27">
+        <v>73.207481922232802</v>
+      </c>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="S34" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="T34" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="U34" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="V34" s="42">
+        <v>43.976096036524567</v>
+      </c>
+      <c r="W34" s="42">
+        <v>53.561592301075592</v>
+      </c>
+      <c r="X34" s="42">
+        <v>48.710378424205167</v>
+      </c>
+      <c r="AA34" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB34" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC34" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD34" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE34" s="40">
+        <v>20.246080762908594</v>
+      </c>
+      <c r="AF34" s="40">
+        <v>16.11461581150429</v>
+      </c>
+      <c r="AG34" s="40">
+        <v>18.871834487591659</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B35" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="21">
+        <v>11.797474789681585</v>
+      </c>
+      <c r="F35" s="21">
+        <v>76.331952117917723</v>
+      </c>
+      <c r="G35" s="21">
+        <v>7.9162617491115608</v>
+      </c>
+      <c r="H35" s="21">
+        <v>3.9543113432891137</v>
+      </c>
+      <c r="L35" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M35" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="O35" s="27">
+        <v>72.142161368871811</v>
+      </c>
+      <c r="P35" s="27">
+        <v>68.91987597644804</v>
+      </c>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="S35" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="T35" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="U35" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="V35" s="42">
+        <v>41.48096171699946</v>
+      </c>
+      <c r="W35" s="42">
+        <v>52.394145140934626</v>
+      </c>
+      <c r="X35" s="42">
+        <v>46.999134815781815</v>
+      </c>
+      <c r="AA35" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB35" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC35" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD35" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE35" s="21">
+        <v>68.509013289586264</v>
+      </c>
+      <c r="AF35" s="21">
+        <v>76.002697713759488</v>
+      </c>
+      <c r="AG35" s="21">
+        <v>72.208919497044448</v>
+      </c>
+    </row>
+    <row r="36" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B36" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="21">
+        <v>15.359363121581515</v>
+      </c>
+      <c r="F36" s="21">
+        <v>73.457692340877841</v>
+      </c>
+      <c r="G36" s="21">
+        <v>7.806015574007116</v>
+      </c>
+      <c r="H36" s="21">
+        <v>3.3769289635335058</v>
+      </c>
+      <c r="L36" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M36" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="O36" s="27">
+        <v>78.907280538723924</v>
+      </c>
+      <c r="P36" s="27">
+        <v>69.560993548364706</v>
+      </c>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="S36" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="T36" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="U36" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="V36" s="42">
+        <v>39.82271150253964</v>
+      </c>
+      <c r="W36" s="42">
+        <v>47.579365587496866</v>
+      </c>
+      <c r="X36" s="42">
+        <v>43.746120528931321</v>
+      </c>
+      <c r="AA36" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB36" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC36" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD36" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE36" s="21">
+        <v>45.136076970846922</v>
+      </c>
+      <c r="AF36" s="21">
+        <v>46.375519893402533</v>
+      </c>
+      <c r="AG36" s="21">
+        <v>45.692221797627987</v>
+      </c>
+    </row>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B37" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="21">
+        <v>22.309798214748849</v>
+      </c>
+      <c r="F37" s="21">
+        <v>68.869626528408574</v>
+      </c>
+      <c r="G37" s="21">
+        <v>5.5525742462399652</v>
+      </c>
+      <c r="H37" s="21">
+        <v>3.2680010106024997</v>
+      </c>
+      <c r="L37" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M37" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="O37" s="27">
+        <v>74.448264844270511</v>
+      </c>
+      <c r="P37" s="27">
+        <v>63.523223643191955</v>
+      </c>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="S37" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="T37" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="U37" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="V37" s="42">
+        <v>43.809638995339348</v>
+      </c>
+      <c r="W37" s="42">
+        <v>53.02903451407289</v>
+      </c>
+      <c r="X37" s="42">
+        <v>48.461155689066729</v>
+      </c>
+      <c r="AA37" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB37" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC37" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD37" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE37" s="21">
+        <v>69.318848064688979</v>
+      </c>
+      <c r="AF37" s="21">
+        <v>75.906399219179093</v>
+      </c>
+      <c r="AG37" s="21">
+        <v>72.57723412499611</v>
+      </c>
+    </row>
+    <row r="38" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B38" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="21">
+        <v>31.634988109325818</v>
+      </c>
+      <c r="F38" s="21">
+        <v>62.950924180031919</v>
+      </c>
+      <c r="G38" s="21">
+        <v>3.9397324497230821</v>
+      </c>
+      <c r="H38" s="21">
+        <v>1.4743552609190738</v>
+      </c>
+      <c r="L38" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M38" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="O38" s="27">
+        <v>69.973928367105543</v>
+      </c>
+      <c r="P38" s="27">
+        <v>51.413173812737</v>
+      </c>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="S38" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="T38" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="U38" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="V38" s="42">
+        <v>63.257868784681712</v>
+      </c>
+      <c r="W38" s="42">
+        <v>62.00610256592892</v>
+      </c>
+      <c r="X38" s="42">
+        <v>62.618959691087362</v>
+      </c>
+      <c r="AA38" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB38" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC38" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD38" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE38" s="21">
+        <v>61.87608690965908</v>
+      </c>
+      <c r="AF38" s="21">
+        <v>77.046035710526183</v>
+      </c>
+      <c r="AG38" s="21">
+        <v>69.477689520131989</v>
+      </c>
+    </row>
+    <row r="39" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B39" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="21">
+        <v>37.507382630538523</v>
+      </c>
+      <c r="F39" s="21">
+        <v>58.828859226554684</v>
+      </c>
+      <c r="G39" s="21">
+        <v>2.499998266840076</v>
+      </c>
+      <c r="H39" s="21">
+        <v>1.1637598760665231</v>
+      </c>
+      <c r="L39" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M39" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="O39" s="27">
+        <v>61.760166443975045</v>
+      </c>
+      <c r="P39" s="27">
+        <v>38.110101615824775</v>
+      </c>
+      <c r="Q39" s="24"/>
+      <c r="AA39" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB39" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC39" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD39" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE39" s="40">
+        <v>5.6154785857451577</v>
+      </c>
+      <c r="AF39" s="40">
+        <v>6.6838191683982835</v>
+      </c>
+      <c r="AG39" s="40">
+        <v>6.1960764132087602</v>
+      </c>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B40" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="21">
+        <v>55.495983859414665</v>
+      </c>
+      <c r="F40" s="21">
+        <v>43.061930288243779</v>
+      </c>
+      <c r="G40" s="21">
+        <v>1.216276188139398</v>
+      </c>
+      <c r="H40" s="21">
+        <v>0.2258096642020572</v>
+      </c>
+      <c r="L40" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M40" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="O40" s="27">
+        <v>54.223482755848032</v>
+      </c>
+      <c r="P40" s="27">
+        <v>20.466827827776584</v>
+      </c>
+      <c r="Q40" s="24"/>
+      <c r="AA40" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB40" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC40" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD40" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE40" s="40">
+        <v>7.8998806542881796</v>
+      </c>
+      <c r="AF40" s="40">
+        <v>11.127265446229105</v>
+      </c>
+      <c r="AG40" s="40">
+        <v>9.7082639448370642</v>
+      </c>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B41" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="21">
+        <v>6.4622839629235189</v>
+      </c>
+      <c r="F41" s="21">
+        <v>65.616081763393453</v>
+      </c>
+      <c r="G41" s="21">
+        <v>22.914442378135607</v>
+      </c>
+      <c r="H41" s="21">
+        <v>5.0071918955468098</v>
+      </c>
+      <c r="L41" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M41" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="N41" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="O41" s="27">
+        <v>79.097526575225487</v>
+      </c>
+      <c r="P41" s="27">
+        <v>74.399495554403927</v>
+      </c>
+      <c r="Q41" s="24"/>
+      <c r="AA41" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB41" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE41" s="40">
+        <v>4.9912565522834003</v>
+      </c>
+      <c r="AF41" s="40">
+        <v>6.5116395951946906</v>
+      </c>
+      <c r="AG41" s="40">
+        <v>5.8054847758705819</v>
+      </c>
+    </row>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B42" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="21">
+        <v>26.10561984132298</v>
+      </c>
+      <c r="F42" s="21">
+        <v>63.274971080911882</v>
+      </c>
+      <c r="G42" s="21">
+        <v>8.9517443215885777</v>
+      </c>
+      <c r="H42" s="21">
+        <v>1.6676647561765554</v>
+      </c>
+      <c r="L42" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="M42" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="N42" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="O42" s="27">
+        <v>50.507960358499695</v>
+      </c>
+      <c r="P42" s="27">
+        <v>37.481836694864299</v>
+      </c>
+      <c r="Q42" s="24"/>
+      <c r="AA42" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB42" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD42" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE42" s="40">
+        <v>9.4271382953067935</v>
+      </c>
+      <c r="AF42" s="40">
+        <v>12.662705856549129</v>
+      </c>
+      <c r="AG42" s="40">
+        <v>11.276868739026581</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B43" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="21">
+        <v>10.047675619988555</v>
+      </c>
+      <c r="F43" s="21">
+        <v>60.708335610687939</v>
+      </c>
+      <c r="G43" s="21">
+        <v>25.44595508414924</v>
+      </c>
+      <c r="H43" s="21">
+        <v>3.798033685172669</v>
+      </c>
+      <c r="Q43" s="25"/>
+      <c r="X43" s="37"/>
+      <c r="Y43" s="38"/>
+      <c r="Z43" s="38"/>
+      <c r="AA43" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB43" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD43" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE43" s="40">
+        <v>8.4837158078048827</v>
+      </c>
+      <c r="AF43" s="40">
+        <v>8.9676818188514424</v>
+      </c>
+      <c r="AG43" s="40">
+        <v>8.7524442358487029</v>
+      </c>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B44" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="21">
+        <v>34.858353593041805</v>
+      </c>
+      <c r="F44" s="21">
+        <v>56.824324208412783</v>
+      </c>
+      <c r="G44" s="21">
+        <v>7.9215332929129163</v>
+      </c>
+      <c r="H44" s="21">
+        <v>0.39578890563257357</v>
+      </c>
+      <c r="M44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="25"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="38"/>
+      <c r="Z44" s="38"/>
+      <c r="AA44" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB44" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD44" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE44" s="40">
+        <v>4.6704876252349967</v>
+      </c>
+      <c r="AF44" s="40">
+        <v>9.6507401625930491</v>
+      </c>
+      <c r="AG44" s="40">
+        <v>7.5505091474555721</v>
+      </c>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="M45" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q45" s="25"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="38"/>
+      <c r="Z45" s="38"/>
+      <c r="AA45" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB45" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD45" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE45" s="40">
+        <v>6.3861376659017415</v>
+      </c>
+      <c r="AF45" s="40">
+        <v>8.9211904119811773</v>
+      </c>
+      <c r="AG45" s="40">
+        <v>7.7424047118304236</v>
+      </c>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="L46" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="M46" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="N46" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="O46" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="38"/>
+      <c r="Z46" s="38"/>
+      <c r="AA46" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB46" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC46" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD46" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE46" s="40">
+        <v>8.0646249687224341</v>
+      </c>
+      <c r="AF46" s="40">
+        <v>12.055009351188234</v>
+      </c>
+      <c r="AG46" s="40">
+        <v>10.552584692371875</v>
+      </c>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="L47" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="M47" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="N47" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="O47" s="27">
+        <v>13.068306348487848</v>
+      </c>
+      <c r="X47" s="37"/>
+      <c r="Y47" s="38"/>
+      <c r="Z47" s="38"/>
+      <c r="AA47" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB47" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC47" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD47" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE47" s="40">
+        <v>11.583193140354821</v>
+      </c>
+      <c r="AF47" s="40">
+        <v>11.502020136795897</v>
+      </c>
+      <c r="AG47" s="40">
+        <v>11.53683142442687</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="L48" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="M48" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="N48" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="O48" s="27">
+        <v>9.2420725258726151</v>
+      </c>
+      <c r="X48" s="37"/>
+      <c r="Y48" s="38"/>
+      <c r="Z48" s="38"/>
+      <c r="AA48" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB48" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC48" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD48" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE48" s="40">
+        <v>5.6440606158151923</v>
+      </c>
+      <c r="AF48" s="40">
+        <v>10.007230500613733</v>
+      </c>
+      <c r="AG48" s="40">
+        <v>8.1096510688107806</v>
+      </c>
+    </row>
+    <row r="49" spans="9:33" x14ac:dyDescent="0.3">
+      <c r="L49" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="M49" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="N49" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="O49" s="27">
+        <v>24.586098650245997</v>
+      </c>
+      <c r="X49" s="23"/>
+      <c r="Y49" s="38"/>
+      <c r="Z49" s="38"/>
+      <c r="AA49" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB49" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC49" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD49" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE49" s="40">
+        <v>4.4550305250596915</v>
+      </c>
+      <c r="AF49" s="40">
+        <v>5.4751196270021403</v>
+      </c>
+      <c r="AG49" s="40">
+        <v>4.9896848778023823</v>
+      </c>
+    </row>
+    <row r="50" spans="9:33" x14ac:dyDescent="0.3">
+      <c r="I50" s="23"/>
+      <c r="L50" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="M50" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="N50" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="O50" s="27">
+        <v>5.5979817251140735</v>
+      </c>
+      <c r="P50" s="33"/>
+      <c r="AA50" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB50" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC50" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD50" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE50" s="40">
+        <v>4.1034009870310673</v>
+      </c>
+      <c r="AF50" s="40">
+        <v>3.2173349440905317</v>
+      </c>
+      <c r="AG50" s="40">
+        <v>3.6733522080936845</v>
+      </c>
+    </row>
+    <row r="51" spans="9:33" x14ac:dyDescent="0.3">
+      <c r="L51" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="N51" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="O51" s="27">
+        <v>28.845361220508746</v>
+      </c>
+      <c r="AA51" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB51" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC51" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD51" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE51" s="40">
+        <v>5.1682613682693068</v>
+      </c>
+      <c r="AF51" s="40">
+        <v>16.188082970721418</v>
+      </c>
+      <c r="AG51" s="40">
+        <v>9.4971771042950568</v>
+      </c>
+    </row>
+    <row r="52" spans="9:33" x14ac:dyDescent="0.3">
+      <c r="L52" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="N52" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="O52" s="27">
+        <v>7.5268480530482478</v>
+      </c>
+      <c r="AA52" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB52" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC52" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD52" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE52" s="40">
+        <v>7.0439593406463858</v>
+      </c>
+      <c r="AF52" s="40">
+        <v>9.4426828020084077</v>
+      </c>
+      <c r="AG52" s="40">
+        <v>8.3742948249346671</v>
+      </c>
+    </row>
+    <row r="53" spans="9:33" x14ac:dyDescent="0.3">
+      <c r="L53" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N53" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="O53" s="27">
+        <v>9.0462627500885517</v>
+      </c>
+      <c r="AA53" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB53" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC53" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD53" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE53" s="40">
+        <v>7.7408837582467696</v>
+      </c>
+      <c r="AF53" s="40">
+        <v>28.850974823323153</v>
+      </c>
+      <c r="AG53" s="40">
+        <v>17.954452569176713</v>
+      </c>
+    </row>
+    <row r="54" spans="9:33" x14ac:dyDescent="0.3">
+      <c r="L54" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="N54" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="O54" s="27">
+        <v>7.7869891461515204</v>
+      </c>
+      <c r="AA54" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB54" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC54" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD54" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE54" s="40">
+        <v>9.083768821159536</v>
+      </c>
+      <c r="AF54" s="40">
+        <v>10.950822291132919</v>
+      </c>
+      <c r="AG54" s="40">
+        <v>10.161348506472631</v>
+      </c>
+    </row>
+    <row r="55" spans="9:33" x14ac:dyDescent="0.3">
+      <c r="L55" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="N55" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="O55" s="27">
+        <v>8.1153831128411351</v>
+      </c>
+      <c r="AA55" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB55" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC55" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD55" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE55" s="40">
+        <v>19.039920083295506</v>
+      </c>
+      <c r="AF55" s="40">
+        <v>15.610909375035911</v>
+      </c>
+      <c r="AG55" s="40">
+        <v>16.937088683950709</v>
+      </c>
+    </row>
+    <row r="56" spans="9:33" x14ac:dyDescent="0.3">
+      <c r="L56" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M56" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="N56" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="O56" s="27">
+        <v>11.242588522416661</v>
+      </c>
+      <c r="AA56" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB56" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC56" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD56" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE56" s="40">
+        <v>89.353703557910379</v>
+      </c>
+      <c r="AF56" s="40">
+        <v>86.817921200126293</v>
+      </c>
+      <c r="AG56" s="40">
+        <v>88.001658490815117</v>
+      </c>
+    </row>
+    <row r="57" spans="9:33" x14ac:dyDescent="0.3">
+      <c r="L57" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M57" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="N57" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="O57" s="27">
+        <v>2.1737878402153199</v>
+      </c>
+      <c r="AA57" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB57" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC57" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD57" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE57" s="40">
+        <v>85.249226834919469</v>
+      </c>
+      <c r="AF57" s="40">
+        <v>82.410383054482409</v>
+      </c>
+      <c r="AG57" s="40">
+        <v>83.647805453268063</v>
+      </c>
+    </row>
+    <row r="58" spans="9:33" x14ac:dyDescent="0.3">
+      <c r="L58" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="M58" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="N58" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="O58" s="27">
+        <v>15.27983207434108</v>
+      </c>
+      <c r="AA58" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB58" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE58" s="40">
+        <v>89.821483264020586</v>
+      </c>
+      <c r="AF58" s="40">
+        <v>89.170986290592865</v>
+      </c>
+      <c r="AG58" s="40">
+        <v>89.480331738067591</v>
+      </c>
+    </row>
+    <row r="59" spans="9:33" x14ac:dyDescent="0.3">
+      <c r="L59" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="M59" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="N59" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="O59" s="27">
+        <v>10.608509274321205</v>
+      </c>
+      <c r="AA59" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB59" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD59" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE59" s="40">
+        <v>80.905833450462069</v>
+      </c>
+      <c r="AF59" s="40">
+        <v>82.020237914910652</v>
+      </c>
+      <c r="AG59" s="40">
+        <v>81.548270033072725</v>
+      </c>
+    </row>
+    <row r="60" spans="9:33" x14ac:dyDescent="0.3">
+      <c r="L60" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="M60" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="N60" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="O60" s="27">
+        <v>27.539268165214402</v>
+      </c>
+      <c r="AA60" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB60" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD60" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE60" s="40">
+        <v>87.158245904481021</v>
+      </c>
+      <c r="AF60" s="40">
+        <v>83.760997247106872</v>
+      </c>
+      <c r="AG60" s="40">
+        <v>85.290442714812897</v>
+      </c>
+    </row>
+    <row r="61" spans="9:33" x14ac:dyDescent="0.3">
+      <c r="L61" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="M61" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="N61" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="O61" s="27">
+        <v>6.5893977569497286</v>
+      </c>
+      <c r="AA61" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB61" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD61" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE61" s="40">
+        <v>92.912973932660137</v>
+      </c>
+      <c r="AF61" s="40">
+        <v>85.111526952946932</v>
+      </c>
+      <c r="AG61" s="40">
+        <v>88.318151996092098</v>
+      </c>
+    </row>
+    <row r="62" spans="9:33" x14ac:dyDescent="0.3">
+      <c r="L62" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="O62" s="27">
+        <v>31.824411419362391</v>
+      </c>
+      <c r="AA62" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB62" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD62" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE62" s="40">
+        <v>86.040233310529061</v>
+      </c>
+      <c r="AF62" s="40">
+        <v>81.980858681907904</v>
+      </c>
+      <c r="AG62" s="40">
+        <v>83.87709091855929</v>
+      </c>
+    </row>
+    <row r="63" spans="9:33" x14ac:dyDescent="0.3">
+      <c r="L63" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="N63" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="O63" s="27">
+        <v>8.6964827813509018</v>
+      </c>
+      <c r="AA63" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB63" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC63" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD63" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE63" s="45">
+        <v>90.356193588392003</v>
+      </c>
+      <c r="AF63" s="45">
+        <v>86.8674536355161</v>
+      </c>
+      <c r="AG63" s="45">
+        <v>88.165716344907864</v>
+      </c>
+    </row>
+    <row r="64" spans="9:33" x14ac:dyDescent="0.3">
+      <c r="L64" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N64" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="O64" s="27">
+        <v>10.629552554303226</v>
+      </c>
+      <c r="AA64" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB64" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC64" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD64" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE64" s="40">
+        <v>83.386747519936236</v>
+      </c>
+      <c r="AF64" s="40">
+        <v>82.774277770116512</v>
+      </c>
+      <c r="AG64" s="40">
+        <v>83.043804758477322</v>
+      </c>
+    </row>
+    <row r="65" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L65" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="N65" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="O65" s="27">
+        <v>9.0005356438498225</v>
+      </c>
+      <c r="AA65" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB65" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC65" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD65" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE65" s="40">
+        <v>87.382013402133012</v>
+      </c>
+      <c r="AF65" s="40">
+        <v>81.608071499309645</v>
+      </c>
+      <c r="AG65" s="40">
+        <v>84.157963832482523</v>
+      </c>
+    </row>
+    <row r="66" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L66" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="N66" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="O66" s="27">
+        <v>9.624662382621775</v>
+      </c>
+      <c r="AA66" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB66" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC66" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD66" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE66" s="40">
+        <v>88.026396524204344</v>
+      </c>
+      <c r="AF66" s="40">
+        <v>85.140587750465656</v>
+      </c>
+      <c r="AG66" s="40">
+        <v>86.515444553700689</v>
+      </c>
+    </row>
+    <row r="67" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L67" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M67" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="N67" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="O67" s="27">
+        <v>13.037871160893364</v>
+      </c>
+      <c r="AA67" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB67" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC67" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD67" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE67" s="40">
+        <v>89.257763841265088</v>
+      </c>
+      <c r="AF67" s="40">
+        <v>88.511654808882113</v>
+      </c>
+      <c r="AG67" s="40">
+        <v>88.928090236783788</v>
+      </c>
+    </row>
+    <row r="68" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L68" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M68" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="N68" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="O68" s="27">
+        <v>2.3829716732167534</v>
+      </c>
+      <c r="AA68" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB68" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC68" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD68" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE68" s="40">
+        <v>82.657564084116942</v>
+      </c>
+      <c r="AF68" s="40">
+        <v>89.448277871765782</v>
+      </c>
+      <c r="AG68" s="40">
+        <v>85.354945276164813</v>
+      </c>
+    </row>
+    <row r="69" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L69" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="M69" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="N69" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="O69" s="27">
+        <v>16.500562153709794</v>
+      </c>
+      <c r="AA69" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB69" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC69" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD69" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE69" s="45">
+        <v>86.705831807102498</v>
+      </c>
+      <c r="AF69" s="45">
+        <v>83.92307546449473</v>
+      </c>
+      <c r="AG69" s="45">
+        <v>85.164186776926897</v>
+      </c>
+    </row>
+    <row r="70" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L70" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="M70" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="N70" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="O70" s="27">
+        <v>14.72031828725731</v>
+      </c>
+      <c r="AA70" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB70" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC70" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD70" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE70" s="46">
+        <v>87.812576919112118</v>
+      </c>
+      <c r="AF70" s="46">
+        <v>67.720512490492752</v>
+      </c>
+      <c r="AG70" s="46">
+        <v>78.474091572367456</v>
+      </c>
+    </row>
+    <row r="71" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L71" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="M71" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="N71" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="O71" s="27">
+        <v>27.761040447146097</v>
+      </c>
+      <c r="AA71" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB71" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC71" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD71" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE71" s="45">
+        <v>85.483475636453164</v>
+      </c>
+      <c r="AF71" s="45">
+        <v>85.232655369464496</v>
+      </c>
+      <c r="AG71" s="45">
+        <v>85.339902174712265</v>
+      </c>
+    </row>
+    <row r="72" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L72" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="M72" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="N72" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="O72" s="27">
+        <v>10.278172442318017</v>
+      </c>
+      <c r="AA72" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB72" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC72" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD72" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE72" s="46">
+        <v>78.464995482057645</v>
+      </c>
+      <c r="AF72" s="46">
+        <v>74.466576766728394</v>
+      </c>
+      <c r="AG72" s="46">
+        <v>76.021258281158779</v>
+      </c>
+    </row>
+    <row r="73" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L73" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="N73" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="O73" s="27">
+        <v>32.030146943177378</v>
+      </c>
+    </row>
+    <row r="74" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L74" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="N74" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="O74" s="27">
+        <v>11.926942983303057</v>
+      </c>
+    </row>
+    <row r="75" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L75" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N75" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="O75" s="27">
+        <v>14.687429713724352</v>
+      </c>
+      <c r="AB75" s="23"/>
+      <c r="AC75" s="23"/>
+      <c r="AD75" s="23"/>
+      <c r="AE75" s="23"/>
+      <c r="AF75" s="23"/>
+      <c r="AG75" s="23"/>
+      <c r="AH75" s="23"/>
+    </row>
+    <row r="76" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L76" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M76" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="N76" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="O76" s="27">
+        <v>11.063399800927959</v>
+      </c>
+      <c r="AB76" s="23"/>
+      <c r="AC76" s="23"/>
+      <c r="AD76" s="23"/>
+      <c r="AE76" s="23"/>
+      <c r="AF76" s="23"/>
+      <c r="AG76" s="23"/>
+      <c r="AH76" s="23"/>
+    </row>
+    <row r="77" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L77" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="N77" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="O77" s="27">
+        <v>12.851620837270598</v>
+      </c>
+      <c r="AB77" s="23"/>
+      <c r="AC77" s="23"/>
+      <c r="AD77" s="23"/>
+      <c r="AE77" s="23"/>
+      <c r="AF77" s="23"/>
+      <c r="AG77" s="23"/>
+      <c r="AH77" s="23"/>
+    </row>
+    <row r="78" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L78" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M78" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="N78" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="O78" s="27">
+        <v>15.693848873063066</v>
+      </c>
+      <c r="AB78" s="23"/>
+      <c r="AC78" s="47"/>
+      <c r="AD78" s="48"/>
+      <c r="AE78" s="48"/>
+      <c r="AF78" s="48"/>
+      <c r="AG78" s="23"/>
+      <c r="AH78" s="23"/>
+    </row>
+    <row r="79" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L79" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M79" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="N79" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="O79" s="27">
+        <v>4.9175760700219113</v>
+      </c>
+      <c r="AB79" s="23"/>
+      <c r="AC79" s="35"/>
+      <c r="AD79" s="49"/>
+      <c r="AE79" s="49"/>
+      <c r="AF79" s="49"/>
+      <c r="AG79" s="23"/>
+      <c r="AH79" s="23"/>
+    </row>
+    <row r="80" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L80" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="M80" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="N80" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="O80" s="27">
+        <v>19.913252275976919</v>
+      </c>
+      <c r="AB80" s="23"/>
+      <c r="AC80" s="35"/>
+      <c r="AD80" s="49"/>
+      <c r="AE80" s="49"/>
+      <c r="AF80" s="49"/>
+      <c r="AG80" s="23"/>
+      <c r="AH80" s="23"/>
+    </row>
+    <row r="81" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L81" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="M81" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="N81" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="O81" s="27">
+        <v>16.555557735790387</v>
+      </c>
+      <c r="AB81" s="23"/>
+      <c r="AC81" s="35"/>
+      <c r="AD81" s="49"/>
+      <c r="AE81" s="49"/>
+      <c r="AF81" s="49"/>
+      <c r="AG81" s="23"/>
+      <c r="AH81" s="23"/>
+    </row>
+    <row r="82" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L82" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="M82" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="N82" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="O82" s="27">
+        <v>32.079993322789399</v>
+      </c>
+      <c r="AB82" s="23"/>
+      <c r="AC82" s="35"/>
+      <c r="AD82" s="49"/>
+      <c r="AE82" s="49"/>
+      <c r="AF82" s="49"/>
+      <c r="AG82" s="23"/>
+      <c r="AH82" s="23"/>
+    </row>
+    <row r="83" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L83" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="M83" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="N83" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="O83" s="27">
+        <v>11.25249042461096</v>
+      </c>
+      <c r="AB83" s="23"/>
+      <c r="AC83" s="23"/>
+      <c r="AD83" s="36"/>
+      <c r="AE83" s="36"/>
+      <c r="AF83" s="36"/>
+      <c r="AG83" s="23"/>
+      <c r="AH83" s="23"/>
+    </row>
+    <row r="84" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L84" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M84" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="N84" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="O84" s="27">
+        <v>36.134491416991771</v>
+      </c>
+      <c r="AB84" s="23"/>
+      <c r="AC84" s="23"/>
+      <c r="AD84" s="23"/>
+      <c r="AE84" s="23"/>
+      <c r="AF84" s="23"/>
+      <c r="AG84" s="23"/>
+      <c r="AH84" s="23"/>
+    </row>
+    <row r="85" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L85" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M85" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="N85" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="O85" s="27">
+        <v>13.410362717874866</v>
+      </c>
+      <c r="AB85" s="23"/>
+      <c r="AC85" s="23"/>
+      <c r="AD85" s="23"/>
+      <c r="AE85" s="23"/>
+      <c r="AF85" s="23"/>
+      <c r="AG85" s="23"/>
+      <c r="AH85" s="23"/>
+    </row>
+    <row r="86" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L86" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M86" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N86" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="O86" s="27">
+        <v>16.864397021830818</v>
+      </c>
+      <c r="AB86" s="23"/>
+      <c r="AC86" s="23"/>
+      <c r="AD86" s="49"/>
+      <c r="AE86" s="49"/>
+      <c r="AF86" s="49"/>
+      <c r="AG86" s="23"/>
+      <c r="AH86" s="23"/>
+    </row>
+    <row r="87" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L87" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M87" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="N87" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="O87" s="27">
+        <v>12.903620674630019</v>
+      </c>
+      <c r="AB87" s="23"/>
+      <c r="AC87" s="23"/>
+      <c r="AD87" s="23"/>
+      <c r="AE87" s="23"/>
+      <c r="AF87" s="23"/>
+      <c r="AG87" s="23"/>
+      <c r="AH87" s="23"/>
+    </row>
+    <row r="88" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L88" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M88" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="N88" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="O88" s="27">
+        <v>14.291436680044635</v>
+      </c>
+      <c r="AB88" s="23"/>
+      <c r="AC88" s="23"/>
+      <c r="AD88" s="23"/>
+      <c r="AE88" s="23"/>
+      <c r="AF88" s="23"/>
+      <c r="AG88" s="23"/>
+      <c r="AH88" s="23"/>
+    </row>
+    <row r="89" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L89" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M89" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="N89" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="O89" s="27">
+        <v>18.323805370369854</v>
+      </c>
+      <c r="AB89" s="23"/>
+      <c r="AC89" s="23"/>
+      <c r="AD89" s="23"/>
+      <c r="AE89" s="23"/>
+      <c r="AF89" s="23"/>
+      <c r="AG89" s="23"/>
+      <c r="AH89" s="23"/>
+    </row>
+    <row r="90" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L90" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M90" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="N90" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="O90" s="27">
+        <v>4.0789406629900622</v>
+      </c>
+    </row>
+    <row r="91" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L91" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="M91" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="N91" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="O91" s="27">
+        <v>12.229141806238555</v>
+      </c>
+    </row>
+    <row r="92" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L92" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="M92" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="N92" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="O92" s="27">
+        <v>6.3500640828174237</v>
+      </c>
+    </row>
+    <row r="93" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L93" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="M93" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="N93" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="O93" s="27">
+        <v>24.171273626473631</v>
+      </c>
+    </row>
+    <row r="94" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L94" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="M94" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="N94" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="O94" s="27">
+        <v>3.4086098202002026</v>
+      </c>
+    </row>
+    <row r="95" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L95" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M95" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="N95" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="O95" s="27">
+        <v>28.513433483141164</v>
+      </c>
+    </row>
+    <row r="96" spans="12:34" x14ac:dyDescent="0.3">
+      <c r="L96" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M96" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="N96" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="O96" s="27">
+        <v>5.5779798413217261</v>
+      </c>
+    </row>
+    <row r="97" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L97" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M97" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N97" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="O97" s="27">
+        <v>6.1911470998415261</v>
+      </c>
+    </row>
+    <row r="98" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L98" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M98" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="N98" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="O98" s="27">
+        <v>6.4727086650514192</v>
+      </c>
+    </row>
+    <row r="99" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L99" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M99" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="N99" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="O99" s="27">
+        <v>6.2379835977990341</v>
+      </c>
+    </row>
+    <row r="100" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L100" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M100" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="N100" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="O100" s="27">
+        <v>9.2889842444376214</v>
+      </c>
+    </row>
+    <row r="101" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L101" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M101" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="N101" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="O101" s="27">
+        <v>1.8172491303554454</v>
+      </c>
+    </row>
+    <row r="103" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="M103" s="31"/>
+      <c r="N103" s="24"/>
+    </row>
+    <row r="104" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="M104" s="32"/>
+      <c r="N104" s="25"/>
+    </row>
+    <row r="132" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M132" s="32"/>
+      <c r="N132" s="25"/>
+    </row>
+    <row r="133" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M133" s="32"/>
+      <c r="N133" s="25"/>
+    </row>
+    <row r="134" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M134" s="32"/>
+      <c r="N134" s="25"/>
+    </row>
+    <row r="135" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M135" s="32"/>
+      <c r="N135" s="25"/>
+    </row>
+    <row r="136" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M136" s="23"/>
+      <c r="N136" s="24"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
